--- a/data/pca/factorExposure/factorExposure_2017-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02371706695629183</v>
+        <v>-0.00901349873435771</v>
       </c>
       <c r="C2">
-        <v>0.002960317722516281</v>
+        <v>0.04382111538533745</v>
       </c>
       <c r="D2">
-        <v>-0.03136382739063475</v>
+        <v>-0.02996993060204197</v>
       </c>
       <c r="E2">
-        <v>-0.01013610320293863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03301806405186132</v>
+      </c>
+      <c r="F2">
+        <v>-0.01091083325939813</v>
+      </c>
+      <c r="G2">
+        <v>0.08305509721970028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0187277547435421</v>
+        <v>-0.04366437304118227</v>
       </c>
       <c r="C3">
-        <v>-0.05223982192826141</v>
+        <v>0.0945159807531421</v>
       </c>
       <c r="D3">
-        <v>-0.0596675877630326</v>
+        <v>-0.01745077402873326</v>
       </c>
       <c r="E3">
-        <v>-0.01733987553198518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1039125176784509</v>
+      </c>
+      <c r="F3">
+        <v>-0.009716725441522632</v>
+      </c>
+      <c r="G3">
+        <v>0.1692761274395865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0250002212127073</v>
+        <v>-0.05579668747606185</v>
       </c>
       <c r="C4">
-        <v>-0.01554189498071162</v>
+        <v>0.06779429983416074</v>
       </c>
       <c r="D4">
-        <v>-0.08193060714461306</v>
+        <v>-0.02463596593329233</v>
       </c>
       <c r="E4">
-        <v>0.01640534352869095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02640814938812081</v>
+      </c>
+      <c r="F4">
+        <v>-0.01274273159778304</v>
+      </c>
+      <c r="G4">
+        <v>0.09206847772299916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01471770410867813</v>
+        <v>-0.03747073094714562</v>
       </c>
       <c r="C6">
-        <v>-0.001322847566223628</v>
+        <v>0.05301386697046725</v>
       </c>
       <c r="D6">
-        <v>-0.08009299580586141</v>
+        <v>-0.01661304184574627</v>
       </c>
       <c r="E6">
-        <v>0.008601768716376188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02592189907425495</v>
+      </c>
+      <c r="F6">
+        <v>-0.01066442999279913</v>
+      </c>
+      <c r="G6">
+        <v>0.06304414139133177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01163180225013889</v>
+        <v>-0.01982158586235869</v>
       </c>
       <c r="C7">
-        <v>-0.007836414203511697</v>
+        <v>0.0412117717452079</v>
       </c>
       <c r="D7">
-        <v>-0.04305428064127393</v>
+        <v>-0.01327316557960298</v>
       </c>
       <c r="E7">
-        <v>0.05833288205294799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004799564991891984</v>
+      </c>
+      <c r="F7">
+        <v>0.002600540272077424</v>
+      </c>
+      <c r="G7">
+        <v>0.1220544290864981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0008062484882664544</v>
+        <v>-0.002455723211763424</v>
       </c>
       <c r="C8">
-        <v>-0.0001466606095451664</v>
+        <v>0.02423747689475137</v>
       </c>
       <c r="D8">
-        <v>-0.008975867919062996</v>
+        <v>-0.004044643135136231</v>
       </c>
       <c r="E8">
-        <v>0.008511903556254552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02205756941505808</v>
+      </c>
+      <c r="F8">
+        <v>-0.00704039855462345</v>
+      </c>
+      <c r="G8">
+        <v>0.05984886848337489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01722429605725192</v>
+        <v>-0.03288024334422718</v>
       </c>
       <c r="C9">
-        <v>-0.01580655825817214</v>
+        <v>0.04941149336187022</v>
       </c>
       <c r="D9">
-        <v>-0.06202213683061486</v>
+        <v>-0.01686086919042972</v>
       </c>
       <c r="E9">
-        <v>0.006482263475664112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01722317674351825</v>
+      </c>
+      <c r="F9">
+        <v>-0.01050862079177173</v>
+      </c>
+      <c r="G9">
+        <v>0.08792742425935288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02669695922276252</v>
+        <v>-0.09873996156354772</v>
       </c>
       <c r="C10">
-        <v>-0.1679549932054473</v>
+        <v>-0.1811123361224395</v>
       </c>
       <c r="D10">
-        <v>0.09803395770714704</v>
+        <v>0.01465632873464977</v>
       </c>
       <c r="E10">
-        <v>-0.01174371107827892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01965075854774386</v>
+      </c>
+      <c r="F10">
+        <v>0.0213544455855651</v>
+      </c>
+      <c r="G10">
+        <v>0.05878904579652792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001062503753887251</v>
+        <v>-0.034122755972557</v>
       </c>
       <c r="C11">
-        <v>-0.004626392429932796</v>
+        <v>0.05484089290224387</v>
       </c>
       <c r="D11">
-        <v>-0.0475531149565796</v>
+        <v>-0.002477722358765567</v>
       </c>
       <c r="E11">
-        <v>-0.002558119315861765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009492343531771565</v>
+      </c>
+      <c r="F11">
+        <v>-0.0221355936641499</v>
+      </c>
+      <c r="G11">
+        <v>0.07223471902199306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005955003252479002</v>
+        <v>-0.03558173943390749</v>
       </c>
       <c r="C12">
-        <v>-0.006473468908247604</v>
+        <v>0.04904998783823877</v>
       </c>
       <c r="D12">
-        <v>-0.04533076932825104</v>
+        <v>-0.006219634431588735</v>
       </c>
       <c r="E12">
-        <v>0.009693514370912398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0009856797830015815</v>
+      </c>
+      <c r="F12">
+        <v>-0.001488680346912832</v>
+      </c>
+      <c r="G12">
+        <v>0.06909082249160664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0247384643599243</v>
+        <v>-0.01506097944952837</v>
       </c>
       <c r="C13">
-        <v>-0.01800629608399579</v>
+        <v>0.03930184698430451</v>
       </c>
       <c r="D13">
-        <v>-0.01265315425475793</v>
+        <v>-0.02638395412650337</v>
       </c>
       <c r="E13">
-        <v>-0.007786228587118704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02998423912650373</v>
+      </c>
+      <c r="F13">
+        <v>-0.007994631982646624</v>
+      </c>
+      <c r="G13">
+        <v>0.1041259478488746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009194408349915396</v>
+        <v>-0.007940601761352487</v>
       </c>
       <c r="C14">
-        <v>-0.01425378144390431</v>
+        <v>0.02768613223855121</v>
       </c>
       <c r="D14">
-        <v>-0.01234942052902671</v>
+        <v>-0.009630141794648115</v>
       </c>
       <c r="E14">
-        <v>0.007809266467833797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0003329446836760444</v>
+      </c>
+      <c r="F14">
+        <v>0.006672099148485772</v>
+      </c>
+      <c r="G14">
+        <v>0.08930856356504226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001940272308165092</v>
+        <v>-0.03289248415347499</v>
       </c>
       <c r="C16">
-        <v>-0.01030562771560302</v>
+        <v>0.04859226549700297</v>
       </c>
       <c r="D16">
-        <v>-0.05012618114576814</v>
+        <v>-0.001945418830501441</v>
       </c>
       <c r="E16">
-        <v>0.007618356916125405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007723261586260304</v>
+      </c>
+      <c r="F16">
+        <v>-0.002855333269168563</v>
+      </c>
+      <c r="G16">
+        <v>0.07545375795166825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01549699983128044</v>
+        <v>-0.02038178317635809</v>
       </c>
       <c r="C19">
-        <v>-0.01838084765003323</v>
+        <v>0.05206845710415357</v>
       </c>
       <c r="D19">
-        <v>-0.02525542202679965</v>
+        <v>-0.01902926621506841</v>
       </c>
       <c r="E19">
-        <v>0.004348189425069047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06713071736377973</v>
+      </c>
+      <c r="F19">
+        <v>-0.02262365323870945</v>
+      </c>
+      <c r="G19">
+        <v>0.1206479792453187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01161756805116022</v>
+        <v>-0.01415630454446505</v>
       </c>
       <c r="C20">
-        <v>-0.006954542114041598</v>
+        <v>0.03892368290533711</v>
       </c>
       <c r="D20">
-        <v>-0.02003414642333851</v>
+        <v>-0.01428324441427335</v>
       </c>
       <c r="E20">
-        <v>-0.01129689761583381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02850262878530289</v>
+      </c>
+      <c r="F20">
+        <v>0.009426180444696671</v>
+      </c>
+      <c r="G20">
+        <v>0.09616814979258961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01616413268293024</v>
+        <v>-0.01250062856919108</v>
       </c>
       <c r="C21">
-        <v>-0.01860061379422507</v>
+        <v>0.03964557741545616</v>
       </c>
       <c r="D21">
-        <v>-0.03238689025898919</v>
+        <v>-0.01857621517144749</v>
       </c>
       <c r="E21">
-        <v>0.01184829759779633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04071260716717535</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002329441786006929</v>
+      </c>
+      <c r="G21">
+        <v>0.1235348227645215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.000590428012698566</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.00020673805738077</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.00023305584210066</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0007581188790158674</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002215884268627093</v>
+      </c>
+      <c r="G22">
+        <v>0.001988567003232309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005947610512536458</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002063651578053951</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002331896963539173</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0007635596559387167</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002197797088038844</v>
+      </c>
+      <c r="G23">
+        <v>0.001997810600134116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004653635731131438</v>
+        <v>-0.02767910243991622</v>
       </c>
       <c r="C24">
-        <v>0.001162045290062061</v>
+        <v>0.05121708342824041</v>
       </c>
       <c r="D24">
-        <v>-0.04710250820661161</v>
+        <v>-0.007256358122098444</v>
       </c>
       <c r="E24">
-        <v>0.006157698745014332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005184373624239981</v>
+      </c>
+      <c r="F24">
+        <v>-0.0147266751864584</v>
+      </c>
+      <c r="G24">
+        <v>0.07539226544813044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01291159299500888</v>
+        <v>-0.04216586513346594</v>
       </c>
       <c r="C25">
-        <v>-0.01541532617168791</v>
+        <v>0.05877829300625264</v>
       </c>
       <c r="D25">
-        <v>-0.05085700131194196</v>
+        <v>-0.0112564616207235</v>
       </c>
       <c r="E25">
-        <v>0.005176605734809834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001604777306400531</v>
+      </c>
+      <c r="F25">
+        <v>-0.00883857365135784</v>
+      </c>
+      <c r="G25">
+        <v>0.08275945662498356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02356854295143357</v>
+        <v>-0.01393114539327836</v>
       </c>
       <c r="C26">
-        <v>-0.008140782436956649</v>
+        <v>0.01172465866032649</v>
       </c>
       <c r="D26">
-        <v>0.001760921621611125</v>
+        <v>-0.02376902745016143</v>
       </c>
       <c r="E26">
-        <v>0.007728711144199496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004840865640229538</v>
+      </c>
+      <c r="F26">
+        <v>0.008066961926097686</v>
+      </c>
+      <c r="G26">
+        <v>0.07029595922908841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0513319725889179</v>
+        <v>-0.1267365205041991</v>
       </c>
       <c r="C28">
-        <v>-0.2365358971486693</v>
+        <v>-0.2359928750893601</v>
       </c>
       <c r="D28">
-        <v>0.1407222833650167</v>
+        <v>0.005624288924792625</v>
       </c>
       <c r="E28">
-        <v>0.01081379447596047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006355734408332901</v>
+      </c>
+      <c r="F28">
+        <v>0.01696669087590804</v>
+      </c>
+      <c r="G28">
+        <v>0.06449360288670283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009590428792014776</v>
+        <v>-0.009216221807080715</v>
       </c>
       <c r="C29">
-        <v>-0.01812694822267606</v>
+        <v>0.02154986009664924</v>
       </c>
       <c r="D29">
-        <v>-0.009834057783569794</v>
+        <v>-0.008633713397225859</v>
       </c>
       <c r="E29">
-        <v>0.002895350945655791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0006027937776916762</v>
+      </c>
+      <c r="F29">
+        <v>0.01452933848062978</v>
+      </c>
+      <c r="G29">
+        <v>0.08102948442411152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02449074592883317</v>
+        <v>-0.04092622530316046</v>
       </c>
       <c r="C30">
-        <v>-0.001234196651459249</v>
+        <v>0.0680729871874094</v>
       </c>
       <c r="D30">
-        <v>-0.06568443034558905</v>
+        <v>-0.02905897190493526</v>
       </c>
       <c r="E30">
-        <v>-0.04308028440952685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05154533972639679</v>
+      </c>
+      <c r="F30">
+        <v>-0.04974218618724642</v>
+      </c>
+      <c r="G30">
+        <v>0.08963567954490356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01143933927175989</v>
+        <v>-0.05273076137714734</v>
       </c>
       <c r="C31">
-        <v>-0.04059544022789215</v>
+        <v>0.03757748674164047</v>
       </c>
       <c r="D31">
-        <v>-0.04203604618263965</v>
+        <v>-0.003639205881331967</v>
       </c>
       <c r="E31">
-        <v>0.00827744739051944</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00339290313294169</v>
+      </c>
+      <c r="F31">
+        <v>0.03930328801578187</v>
+      </c>
+      <c r="G31">
+        <v>0.08083375685432974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004807195264618446</v>
+        <v>-0.001329947752548407</v>
       </c>
       <c r="C32">
-        <v>-0.01963184782342679</v>
+        <v>0.02417731919471962</v>
       </c>
       <c r="D32">
-        <v>0.001215073753773238</v>
+        <v>0.003630375544405932</v>
       </c>
       <c r="E32">
-        <v>0.05327586334746799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01720884277867155</v>
+      </c>
+      <c r="F32">
+        <v>-0.04032237462496564</v>
+      </c>
+      <c r="G32">
+        <v>0.09453762771128442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01550223151807725</v>
+        <v>-0.0271478189878019</v>
       </c>
       <c r="C33">
-        <v>-0.02559454915306061</v>
+        <v>0.04949525121564766</v>
       </c>
       <c r="D33">
-        <v>-0.03531116458280809</v>
+        <v>-0.01570973869757973</v>
       </c>
       <c r="E33">
-        <v>-0.02780192056883895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03440694247881771</v>
+      </c>
+      <c r="F33">
+        <v>-0.01803144068694981</v>
+      </c>
+      <c r="G33">
+        <v>0.120857029260829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003464957971644214</v>
+        <v>-0.03995416788715404</v>
       </c>
       <c r="C34">
-        <v>-0.01619553545901646</v>
+        <v>0.06171671232099246</v>
       </c>
       <c r="D34">
-        <v>-0.05372277101928519</v>
+        <v>0.004632144962157721</v>
       </c>
       <c r="E34">
-        <v>0.01266517313798793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0008012474952041365</v>
+      </c>
+      <c r="F34">
+        <v>-0.0204987411203315</v>
+      </c>
+      <c r="G34">
+        <v>0.08288827163505413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01381481463198049</v>
+        <v>-0.01564525162601773</v>
       </c>
       <c r="C36">
-        <v>-0.01880244355790115</v>
+        <v>0.009177034955127575</v>
       </c>
       <c r="D36">
-        <v>-0.006426153499272481</v>
+        <v>-0.01211676229496647</v>
       </c>
       <c r="E36">
-        <v>0.003832445413865759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002874889519333653</v>
+      </c>
+      <c r="F36">
+        <v>0.005842087886801865</v>
+      </c>
+      <c r="G36">
+        <v>0.07205886085893737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001234175316134935</v>
+        <v>-0.03219891842199054</v>
       </c>
       <c r="C38">
-        <v>-0.0362252961933401</v>
+        <v>0.03159310266019016</v>
       </c>
       <c r="D38">
-        <v>-0.0447670222170738</v>
+        <v>0.007539214866897912</v>
       </c>
       <c r="E38">
-        <v>0.005883367659266099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002818250559029653</v>
+      </c>
+      <c r="F38">
+        <v>0.01709131605957322</v>
+      </c>
+      <c r="G38">
+        <v>0.07387447810159353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00422244061245801</v>
+        <v>-0.03475162986788187</v>
       </c>
       <c r="C39">
-        <v>0.02114856776730093</v>
+        <v>0.08087178823949427</v>
       </c>
       <c r="D39">
-        <v>-0.09176915661266376</v>
+        <v>-0.01177917652347692</v>
       </c>
       <c r="E39">
-        <v>-0.006622815339856633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02043549806477288</v>
+      </c>
+      <c r="F39">
+        <v>-0.02651198913365506</v>
+      </c>
+      <c r="G39">
+        <v>0.07266902077078108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01304627155345676</v>
+        <v>-0.01539222277302146</v>
       </c>
       <c r="C40">
-        <v>-0.01594607866270486</v>
+        <v>0.04309974301936229</v>
       </c>
       <c r="D40">
-        <v>-0.03300691233700363</v>
+        <v>-0.01494792709381642</v>
       </c>
       <c r="E40">
-        <v>0.005705902341383273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02133226960722763</v>
+      </c>
+      <c r="F40">
+        <v>0.01337617088399501</v>
+      </c>
+      <c r="G40">
+        <v>0.1098497167146976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.007062879493456643</v>
+        <v>-0.01923679332106278</v>
       </c>
       <c r="C41">
-        <v>-0.02060747365082099</v>
+        <v>0.000885966715234314</v>
       </c>
       <c r="D41">
-        <v>0.008259189466035129</v>
+        <v>-0.00423423665181131</v>
       </c>
       <c r="E41">
-        <v>0.002441808690542311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001185398236020259</v>
+      </c>
+      <c r="F41">
+        <v>0.01199689204375558</v>
+      </c>
+      <c r="G41">
+        <v>0.06129029369382499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09067553599082312</v>
+        <v>-0.008816692589736537</v>
       </c>
       <c r="C42">
-        <v>0.03392089648186293</v>
+        <v>0.0370005009122791</v>
       </c>
       <c r="D42">
-        <v>-0.2201073363891376</v>
+        <v>-0.09222501013968357</v>
       </c>
       <c r="E42">
-        <v>-0.396711783010664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01985651655984345</v>
+      </c>
+      <c r="F42">
+        <v>0.03689994720791913</v>
+      </c>
+      <c r="G42">
+        <v>-0.1515662866066761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008498580166484406</v>
+        <v>-0.03288668044186766</v>
       </c>
       <c r="C43">
-        <v>-0.02547583103144399</v>
+        <v>0.01671920250926596</v>
       </c>
       <c r="D43">
-        <v>0.006636514195551203</v>
+        <v>-0.006048209680523615</v>
       </c>
       <c r="E43">
-        <v>-0.0003769413721620343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01505513654949015</v>
+      </c>
+      <c r="F43">
+        <v>0.002408103383489587</v>
+      </c>
+      <c r="G43">
+        <v>0.09109514906372407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003973198658908484</v>
+        <v>-0.01209561762784793</v>
       </c>
       <c r="C44">
-        <v>-0.005612586074382161</v>
+        <v>0.05826518134045312</v>
       </c>
       <c r="D44">
-        <v>-0.04666995227311987</v>
+        <v>-0.006794155028833496</v>
       </c>
       <c r="E44">
-        <v>0.006306113802156496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0176806906691941</v>
+      </c>
+      <c r="F44">
+        <v>0.006662721866072245</v>
+      </c>
+      <c r="G44">
+        <v>0.08924289894627681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01182574947788258</v>
+        <v>-0.007936227331982692</v>
       </c>
       <c r="C46">
-        <v>-0.01315133479297317</v>
+        <v>0.01723469494697495</v>
       </c>
       <c r="D46">
-        <v>-0.009405033610080365</v>
+        <v>-0.01238803510330787</v>
       </c>
       <c r="E46">
-        <v>-0.00277129032755354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-7.103518188393492e-05</v>
+      </c>
+      <c r="F46">
+        <v>0.01423459541263724</v>
+      </c>
+      <c r="G46">
+        <v>0.08356741319501217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005993142998433127</v>
+        <v>-0.07705471123751875</v>
       </c>
       <c r="C47">
-        <v>-0.04922074363306572</v>
+        <v>0.0667670555271163</v>
       </c>
       <c r="D47">
-        <v>-0.07206876440436392</v>
+        <v>0.005329170230088572</v>
       </c>
       <c r="E47">
-        <v>0.006660550742952701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00918308233209874</v>
+      </c>
+      <c r="F47">
+        <v>0.05446730731881905</v>
+      </c>
+      <c r="G47">
+        <v>0.073206889550734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005149974081712873</v>
+        <v>-0.02014243010789826</v>
       </c>
       <c r="C48">
-        <v>-0.02495911330908158</v>
+        <v>0.01260021666580465</v>
       </c>
       <c r="D48">
-        <v>-0.01800197194527463</v>
+        <v>-0.001505105158938464</v>
       </c>
       <c r="E48">
-        <v>0.001821484828119698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>6.694378174028439e-05</v>
+      </c>
+      <c r="F48">
+        <v>0.01992757729314669</v>
+      </c>
+      <c r="G48">
+        <v>0.07696597178667046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.008261538837556223</v>
+        <v>-0.07522533504808004</v>
       </c>
       <c r="C50">
-        <v>-0.05297868680920063</v>
+        <v>0.06985373861776988</v>
       </c>
       <c r="D50">
-        <v>-0.06937919512758384</v>
+        <v>0.002890449233117873</v>
       </c>
       <c r="E50">
-        <v>0.03278616999663133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01008498660786843</v>
+      </c>
+      <c r="F50">
+        <v>0.05581114677786365</v>
+      </c>
+      <c r="G50">
+        <v>0.09148788198171737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008073556140838021</v>
+        <v>-0.01360365890038274</v>
       </c>
       <c r="C51">
-        <v>-0.01406547272466461</v>
+        <v>0.03525546891394563</v>
       </c>
       <c r="D51">
-        <v>-0.005020201540443055</v>
+        <v>-0.01033952918149908</v>
       </c>
       <c r="E51">
-        <v>0.004678050897245258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01791935754212702</v>
+      </c>
+      <c r="F51">
+        <v>-0.02554323074359493</v>
+      </c>
+      <c r="G51">
+        <v>0.1083406205997725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01003605598270069</v>
+        <v>-0.08171319271439684</v>
       </c>
       <c r="C53">
-        <v>-0.06229984615805025</v>
+        <v>0.08466567863119923</v>
       </c>
       <c r="D53">
-        <v>-0.1269137045495734</v>
+        <v>0.004082254116895865</v>
       </c>
       <c r="E53">
-        <v>0.01525626679086742</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02784219370134087</v>
+      </c>
+      <c r="F53">
+        <v>0.06579722704053581</v>
+      </c>
+      <c r="G53">
+        <v>0.07286979948239257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002974824681916022</v>
+        <v>-0.02928598061193905</v>
       </c>
       <c r="C54">
-        <v>-0.03408407942798058</v>
+        <v>0.01599445029151601</v>
       </c>
       <c r="D54">
-        <v>0.004684211665984061</v>
+        <v>0.001194371319538203</v>
       </c>
       <c r="E54">
-        <v>-0.0025748094466944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0124366462005118</v>
+      </c>
+      <c r="F54">
+        <v>-0.001602837853121344</v>
+      </c>
+      <c r="G54">
+        <v>0.08484709090513419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005261474164377131</v>
+        <v>-0.0708388172434449</v>
       </c>
       <c r="C55">
-        <v>-0.03911398282962319</v>
+        <v>0.06879443849825778</v>
       </c>
       <c r="D55">
-        <v>-0.1021734804840826</v>
+        <v>0.005337569934309509</v>
       </c>
       <c r="E55">
-        <v>-0.001560556035063983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02395267321367435</v>
+      </c>
+      <c r="F55">
+        <v>0.0620163231609776</v>
+      </c>
+      <c r="G55">
+        <v>0.04530216932042476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.009748925905598274</v>
+        <v>-0.1376841808331866</v>
       </c>
       <c r="C56">
-        <v>-0.08613091499359415</v>
+        <v>0.1082775735152905</v>
       </c>
       <c r="D56">
-        <v>-0.1605253298070697</v>
+        <v>0.01283695693706591</v>
       </c>
       <c r="E56">
-        <v>0.006265102691094928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03288660018299058</v>
+      </c>
+      <c r="F56">
+        <v>0.08009527105605918</v>
+      </c>
+      <c r="G56">
+        <v>0.02279570849413454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0242861949661067</v>
+        <v>-0.006784499380817697</v>
       </c>
       <c r="C57">
-        <v>-0.008187844976041329</v>
+        <v>0.009338349342713964</v>
       </c>
       <c r="D57">
-        <v>-0.04443735612559968</v>
+        <v>-0.02358129959535977</v>
       </c>
       <c r="E57">
-        <v>-0.004971261167435653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02461990779401278</v>
+      </c>
+      <c r="F57">
+        <v>-0.008342424363406634</v>
+      </c>
+      <c r="G57">
+        <v>0.02891857496724787</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.016059642879993</v>
+        <v>-0.05531990775994138</v>
       </c>
       <c r="C58">
-        <v>-0.06614794106722852</v>
+        <v>0.05368546419940385</v>
       </c>
       <c r="D58">
-        <v>-0.1435523982272778</v>
+        <v>-0.02769761634780871</v>
       </c>
       <c r="E58">
-        <v>-0.4932342733006884</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9303505946489976</v>
+      </c>
+      <c r="F58">
+        <v>0.2526931549588478</v>
+      </c>
+      <c r="G58">
+        <v>-0.1212046585862809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05171917891405606</v>
+        <v>-0.1604666730323142</v>
       </c>
       <c r="C59">
-        <v>-0.2634151284856695</v>
+        <v>-0.2035751943945272</v>
       </c>
       <c r="D59">
-        <v>0.1350575834881306</v>
+        <v>0.01086451471400931</v>
       </c>
       <c r="E59">
-        <v>0.006869730989362397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0193136908942834</v>
+      </c>
+      <c r="F59">
+        <v>-0.004639956639321847</v>
+      </c>
+      <c r="G59">
+        <v>0.04080832155247092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04827796652789305</v>
+        <v>-0.2861418035490101</v>
       </c>
       <c r="C60">
-        <v>-0.1639342054772767</v>
+        <v>0.1070438609383043</v>
       </c>
       <c r="D60">
-        <v>-0.09648770382290102</v>
+        <v>-0.01358550188741964</v>
       </c>
       <c r="E60">
-        <v>0.01498557905129227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.006887223573415439</v>
+      </c>
+      <c r="F60">
+        <v>-0.350195665569698</v>
+      </c>
+      <c r="G60">
+        <v>-0.1268652865169134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003797709116875073</v>
+        <v>-0.03698268459030416</v>
       </c>
       <c r="C61">
-        <v>-0.006732118510782178</v>
+        <v>0.06738012665339721</v>
       </c>
       <c r="D61">
-        <v>-0.0672098156918603</v>
+        <v>-0.005242235020994559</v>
       </c>
       <c r="E61">
-        <v>0.005919287070078128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01285117037455668</v>
+      </c>
+      <c r="F61">
+        <v>-0.01482342870307382</v>
+      </c>
+      <c r="G61">
+        <v>0.0744611701295885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008372371229610339</v>
+        <v>-0.01399832642595624</v>
       </c>
       <c r="C63">
-        <v>-0.006268695317963587</v>
+        <v>0.02945229264699977</v>
       </c>
       <c r="D63">
-        <v>-0.02045279798888779</v>
+        <v>-0.008358998849409006</v>
       </c>
       <c r="E63">
-        <v>0.01110160001698372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>8.625411516683201e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.01561532593319616</v>
+      </c>
+      <c r="G63">
+        <v>0.07700489752252648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01020282865660388</v>
+        <v>-0.04717102008532435</v>
       </c>
       <c r="C64">
-        <v>-0.02888528925414901</v>
+        <v>0.04694820653624489</v>
       </c>
       <c r="D64">
-        <v>-0.05797593763643023</v>
+        <v>-0.006354085511836039</v>
       </c>
       <c r="E64">
-        <v>-0.005771816085788762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0007030904362779307</v>
+      </c>
+      <c r="F64">
+        <v>-0.006486506583531673</v>
+      </c>
+      <c r="G64">
+        <v>0.07651063395301641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01745866400375897</v>
+        <v>-0.07589782812643059</v>
       </c>
       <c r="C65">
-        <v>-0.003988546796547691</v>
+        <v>0.06049256928722843</v>
       </c>
       <c r="D65">
-        <v>-0.09450530038285003</v>
+        <v>-0.01641848744366419</v>
       </c>
       <c r="E65">
-        <v>0.01562743567695855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0285416921464878</v>
+      </c>
+      <c r="F65">
+        <v>-0.0293879891784092</v>
+      </c>
+      <c r="G65">
+        <v>0.0271819617861607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004706490135112889</v>
+        <v>-0.05075438390085816</v>
       </c>
       <c r="C66">
-        <v>0.0148003351532796</v>
+        <v>0.1106215189224857</v>
       </c>
       <c r="D66">
-        <v>-0.1226136601207487</v>
+        <v>-0.01181716672835578</v>
       </c>
       <c r="E66">
-        <v>-0.00256217861382689</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02975940979501634</v>
+      </c>
+      <c r="F66">
+        <v>-0.03598201753541742</v>
+      </c>
+      <c r="G66">
+        <v>0.08725553982201791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005844323524217211</v>
+        <v>-0.05502929164173613</v>
       </c>
       <c r="C67">
-        <v>-0.05659368489070263</v>
+        <v>0.03545366758020468</v>
       </c>
       <c r="D67">
-        <v>-0.05486582068037024</v>
+        <v>0.005961632558993056</v>
       </c>
       <c r="E67">
-        <v>0.008464829226641784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004378588576369785</v>
+      </c>
+      <c r="F67">
+        <v>0.0173862881566581</v>
+      </c>
+      <c r="G67">
+        <v>0.06668437601943651</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06508907064309813</v>
+        <v>-0.1537248535577298</v>
       </c>
       <c r="C68">
-        <v>-0.2310505846687035</v>
+        <v>-0.2687027679915547</v>
       </c>
       <c r="D68">
-        <v>0.1625439294275034</v>
+        <v>-0.006437460070639322</v>
       </c>
       <c r="E68">
-        <v>-0.02018398435109071</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01176158436306646</v>
+      </c>
+      <c r="F68">
+        <v>0.03204169146388427</v>
+      </c>
+      <c r="G68">
+        <v>0.02916743054822875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001210140404270129</v>
+        <v>-0.08101552278792878</v>
       </c>
       <c r="C69">
-        <v>-0.04209384555070803</v>
+        <v>0.07001490041100866</v>
       </c>
       <c r="D69">
-        <v>-0.07532420442170638</v>
+        <v>0.0092976047041309</v>
       </c>
       <c r="E69">
-        <v>0.01399226354926997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0247027012013419</v>
+      </c>
+      <c r="F69">
+        <v>0.03712192516239807</v>
+      </c>
+      <c r="G69">
+        <v>0.07884489102791908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04962586386238812</v>
+        <v>-0.1400036502595446</v>
       </c>
       <c r="C71">
-        <v>-0.2045201481174377</v>
+        <v>-0.2281452493330807</v>
       </c>
       <c r="D71">
-        <v>0.1178428127126776</v>
+        <v>0.002090554975179228</v>
       </c>
       <c r="E71">
-        <v>-0.01114748702574659</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03256561033729484</v>
+      </c>
+      <c r="F71">
+        <v>0.01910252642474874</v>
+      </c>
+      <c r="G71">
+        <v>0.0629770350867358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.000218157253434819</v>
+        <v>-0.08493786829367074</v>
       </c>
       <c r="C72">
-        <v>-0.03556343776917202</v>
+        <v>0.07408823429155531</v>
       </c>
       <c r="D72">
-        <v>-0.1126295060891913</v>
+        <v>0.007951141099127453</v>
       </c>
       <c r="E72">
-        <v>0.009229724876938792</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00257069155486318</v>
+      </c>
+      <c r="F72">
+        <v>-0.04226640164556263</v>
+      </c>
+      <c r="G72">
+        <v>0.06472760421467857</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06112076843657939</v>
+        <v>-0.374117045198807</v>
       </c>
       <c r="C73">
-        <v>-0.1781356082708856</v>
+        <v>0.1188096271658714</v>
       </c>
       <c r="D73">
-        <v>-0.1990721172569694</v>
+        <v>-0.02293817452630977</v>
       </c>
       <c r="E73">
-        <v>-0.01475543477270891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07930039422825937</v>
+      </c>
+      <c r="F73">
+        <v>-0.5733236497977067</v>
+      </c>
+      <c r="G73">
+        <v>-0.2440152287951987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.006597125463461641</v>
+        <v>-0.1052244179908612</v>
       </c>
       <c r="C74">
-        <v>-0.07128142337789875</v>
+        <v>0.1102013669593424</v>
       </c>
       <c r="D74">
-        <v>-0.1706686848318943</v>
+        <v>0.009735995666069142</v>
       </c>
       <c r="E74">
-        <v>-0.005108150436507055</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01011300407547955</v>
+      </c>
+      <c r="F74">
+        <v>0.07042638390885206</v>
+      </c>
+      <c r="G74">
+        <v>0.06525722931815678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01738552988546207</v>
+        <v>-0.2487688082872132</v>
       </c>
       <c r="C75">
-        <v>-0.1649259766094839</v>
+        <v>0.15069161667083</v>
       </c>
       <c r="D75">
-        <v>-0.2991205821138301</v>
+        <v>0.03149471057568003</v>
       </c>
       <c r="E75">
-        <v>-0.01265498887009861</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06121534131902972</v>
+      </c>
+      <c r="F75">
+        <v>0.1745650672029651</v>
+      </c>
+      <c r="G75">
+        <v>-0.0553701344533947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00564832472854478</v>
+        <v>-0.1223757265691608</v>
       </c>
       <c r="C76">
-        <v>-0.1119329245886619</v>
+        <v>0.1129592723242858</v>
       </c>
       <c r="D76">
-        <v>-0.2262964865073462</v>
+        <v>0.02032744475658593</v>
       </c>
       <c r="E76">
-        <v>0.03290149570669013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03928714356156182</v>
+      </c>
+      <c r="F76">
+        <v>0.1171321712830215</v>
+      </c>
+      <c r="G76">
+        <v>0.04220246209087507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01638258391838784</v>
+        <v>-0.06814133699569933</v>
       </c>
       <c r="C77">
-        <v>-0.02983354024336173</v>
+        <v>0.06169779786787624</v>
       </c>
       <c r="D77">
-        <v>-0.04866698842040359</v>
+        <v>-0.01186365990219736</v>
       </c>
       <c r="E77">
-        <v>-0.001743171124223274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04343199425124992</v>
+      </c>
+      <c r="F77">
+        <v>-0.009081876521254396</v>
+      </c>
+      <c r="G77">
+        <v>0.06174243126654111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006279167390757434</v>
+        <v>-0.04227999827896084</v>
       </c>
       <c r="C78">
-        <v>-0.01672010418774967</v>
+        <v>0.05197877553664325</v>
       </c>
       <c r="D78">
-        <v>-0.04125564240521186</v>
+        <v>-0.005577834386109697</v>
       </c>
       <c r="E78">
-        <v>0.001539895799316795</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0213717212613595</v>
+      </c>
+      <c r="F78">
+        <v>-0.03611081428937418</v>
+      </c>
+      <c r="G78">
+        <v>0.07814889526345901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01741485931273133</v>
+        <v>-0.05210342442238554</v>
       </c>
       <c r="C80">
-        <v>-0.0709775113577658</v>
+        <v>0.07318572233263521</v>
       </c>
       <c r="D80">
-        <v>-0.202459511897894</v>
+        <v>-0.009995775134085227</v>
       </c>
       <c r="E80">
-        <v>0.7466515572815842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03803055710081563</v>
+      </c>
+      <c r="F80">
+        <v>-0.01227762602161483</v>
+      </c>
+      <c r="G80">
+        <v>0.5366436739279583</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01209495787085844</v>
+        <v>-0.140437804164215</v>
       </c>
       <c r="C81">
-        <v>-0.1017073420570317</v>
+        <v>0.09659681230690585</v>
       </c>
       <c r="D81">
-        <v>-0.1713196213006892</v>
+        <v>0.01566292321674688</v>
       </c>
       <c r="E81">
-        <v>0.01511686087021185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03540162406638079</v>
+      </c>
+      <c r="F81">
+        <v>0.1337732873913769</v>
+      </c>
+      <c r="G81">
+        <v>0.02261053442623208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1248736577840978</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07207055608331746</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008189750104995236</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08859546683825399</v>
+      </c>
+      <c r="F82">
+        <v>0.0336812110370731</v>
+      </c>
+      <c r="G82">
+        <v>0.03510725269240954</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008841993650303581</v>
+        <v>-0.03646091971433191</v>
       </c>
       <c r="C83">
-        <v>-0.02467169606087003</v>
+        <v>0.0291268304294381</v>
       </c>
       <c r="D83">
-        <v>-0.02688992425986901</v>
+        <v>-0.005947785282972332</v>
       </c>
       <c r="E83">
-        <v>-0.004314809200020045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02910919883533854</v>
+      </c>
+      <c r="F83">
+        <v>-0.03262214327611707</v>
+      </c>
+      <c r="G83">
+        <v>0.05696103953431959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02333584926875611</v>
+        <v>-0.2158583511700671</v>
       </c>
       <c r="C85">
-        <v>-0.1331355866862942</v>
+        <v>0.1461200046645474</v>
       </c>
       <c r="D85">
-        <v>-0.2731270360599187</v>
+        <v>0.01960940261145401</v>
       </c>
       <c r="E85">
-        <v>-0.001952321791241474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1027131441843912</v>
+      </c>
+      <c r="F85">
+        <v>0.1381476418273022</v>
+      </c>
+      <c r="G85">
+        <v>-0.1121747041468726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01043179468806281</v>
+        <v>-0.01349245940049234</v>
       </c>
       <c r="C86">
-        <v>-0.02754542560193625</v>
+        <v>0.02828663908344356</v>
       </c>
       <c r="D86">
-        <v>-0.02174019363947095</v>
+        <v>-0.01263005060882771</v>
       </c>
       <c r="E86">
-        <v>-0.03536059076699943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04687366625743376</v>
+      </c>
+      <c r="F86">
+        <v>-0.03173406831160536</v>
+      </c>
+      <c r="G86">
+        <v>0.1660749272413492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008689095256179698</v>
+        <v>-0.022921876679804</v>
       </c>
       <c r="C87">
-        <v>-0.004083761790184691</v>
+        <v>0.02315533677197661</v>
       </c>
       <c r="D87">
-        <v>-0.04157819064889908</v>
+        <v>-0.01235232542216271</v>
       </c>
       <c r="E87">
-        <v>-0.008704627933732216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08580459397371099</v>
+      </c>
+      <c r="F87">
+        <v>-0.01608441017345609</v>
+      </c>
+      <c r="G87">
+        <v>0.1041320996896677</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02898603036771355</v>
+        <v>-0.09121623802444938</v>
       </c>
       <c r="C88">
-        <v>-0.03012261192014936</v>
+        <v>0.06593000531260668</v>
       </c>
       <c r="D88">
-        <v>-0.04379647897211514</v>
+        <v>-0.02258579052914169</v>
       </c>
       <c r="E88">
-        <v>0.004761422459120946</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008513097824888721</v>
+      </c>
+      <c r="F88">
+        <v>0.0179177558526854</v>
+      </c>
+      <c r="G88">
+        <v>0.07178444248234403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09533497702490214</v>
+        <v>-0.233920281872141</v>
       </c>
       <c r="C89">
-        <v>-0.385545648945596</v>
+        <v>-0.368212057673405</v>
       </c>
       <c r="D89">
-        <v>0.2263498608608053</v>
+        <v>-0.0002427670331222007</v>
       </c>
       <c r="E89">
-        <v>0.0240073350212154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01533292057195488</v>
+      </c>
+      <c r="F89">
+        <v>0.02929170980878068</v>
+      </c>
+      <c r="G89">
+        <v>0.0644455407609158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07290701272814233</v>
+        <v>-0.2075698045771377</v>
       </c>
       <c r="C90">
-        <v>-0.3008130530596628</v>
+        <v>-0.3194628504041746</v>
       </c>
       <c r="D90">
-        <v>0.2044110049361392</v>
+        <v>0.004302127258980984</v>
       </c>
       <c r="E90">
-        <v>-0.01707633499907206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004601954606145758</v>
+      </c>
+      <c r="F90">
+        <v>0.05149042376433573</v>
+      </c>
+      <c r="G90">
+        <v>0.02483226764172873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01381488694088344</v>
+        <v>-0.1889236704189648</v>
       </c>
       <c r="C91">
-        <v>-0.145164713060232</v>
+        <v>0.1395670088482116</v>
       </c>
       <c r="D91">
-        <v>-0.2264395933415206</v>
+        <v>0.02375335429593222</v>
       </c>
       <c r="E91">
-        <v>0.01696475409075127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06800989483537333</v>
+      </c>
+      <c r="F91">
+        <v>0.1506196697946261</v>
+      </c>
+      <c r="G91">
+        <v>0.01248804536566162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04137600483020432</v>
+        <v>-0.2015143205724201</v>
       </c>
       <c r="C92">
-        <v>-0.3168109681518274</v>
+        <v>-0.2564353148069667</v>
       </c>
       <c r="D92">
-        <v>0.08818628367725173</v>
+        <v>0.03826222955546044</v>
       </c>
       <c r="E92">
-        <v>-0.03244517432381189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03182181247331085</v>
+      </c>
+      <c r="F92">
+        <v>0.06107981371652796</v>
+      </c>
+      <c r="G92">
+        <v>0.1266993875181638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07108865874282687</v>
+        <v>-0.2314635672420229</v>
       </c>
       <c r="C93">
-        <v>-0.3205567746558007</v>
+        <v>-0.3162750208183265</v>
       </c>
       <c r="D93">
-        <v>0.182804573362471</v>
+        <v>0.01100341421967747</v>
       </c>
       <c r="E93">
-        <v>-0.04002346576193381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006896751967216713</v>
+      </c>
+      <c r="F93">
+        <v>0.03280561029451068</v>
+      </c>
+      <c r="G93">
+        <v>0.02633711828598712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03741317064131479</v>
+        <v>-0.3174934255431406</v>
       </c>
       <c r="C94">
-        <v>-0.1646133573504852</v>
+        <v>0.1766998011683375</v>
       </c>
       <c r="D94">
-        <v>-0.2443876361544838</v>
+        <v>0.01908418194231107</v>
       </c>
       <c r="E94">
-        <v>-0.01812482369777109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1783120898933058</v>
+      </c>
+      <c r="F94">
+        <v>0.4703485162620991</v>
+      </c>
+      <c r="G94">
+        <v>-0.3297427972151383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002823213867247316</v>
+        <v>-0.09939028107282299</v>
       </c>
       <c r="C95">
-        <v>-0.0358860915661393</v>
+        <v>0.0862457174661154</v>
       </c>
       <c r="D95">
-        <v>-0.1010981210457902</v>
+        <v>0.009645618967574199</v>
       </c>
       <c r="E95">
-        <v>-0.1326068233724852</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0732915471353275</v>
+      </c>
+      <c r="F95">
+        <v>-0.1950394651398401</v>
+      </c>
+      <c r="G95">
+        <v>-0.08275453715212647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02125646999531587</v>
+        <v>-0.1973332531939928</v>
       </c>
       <c r="C98">
-        <v>-0.1623075643870762</v>
+        <v>0.04753066317045958</v>
       </c>
       <c r="D98">
-        <v>-0.1341282612981676</v>
+        <v>0.0118395797526365</v>
       </c>
       <c r="E98">
-        <v>-0.03571666807928196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07306346512734382</v>
+      </c>
+      <c r="F98">
+        <v>-0.240112180002084</v>
+      </c>
+      <c r="G98">
+        <v>-0.008900127174628267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009360172866821873</v>
+        <v>-0.009058673177255437</v>
       </c>
       <c r="C101">
-        <v>-0.01782228252608452</v>
+        <v>0.02150152908435877</v>
       </c>
       <c r="D101">
-        <v>-0.009500415759042919</v>
+        <v>-0.008449790155403411</v>
       </c>
       <c r="E101">
-        <v>0.003297078806479882</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0009182842151331636</v>
+      </c>
+      <c r="F101">
+        <v>0.01551411740694238</v>
+      </c>
+      <c r="G101">
+        <v>0.08040117447327151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02037489901360775</v>
+        <v>-0.1175498477658162</v>
       </c>
       <c r="C102">
-        <v>-0.07066001614886085</v>
+        <v>0.08488995559640075</v>
       </c>
       <c r="D102">
-        <v>-0.1272797229568405</v>
+        <v>-0.0004707991841297077</v>
       </c>
       <c r="E102">
-        <v>0.002523622433183837</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03521302589722767</v>
+      </c>
+      <c r="F102">
+        <v>0.0410591530279741</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002306421666443141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002115122350709608</v>
+        <v>-0.003366414629974018</v>
       </c>
       <c r="C103">
-        <v>-0.01153277723852012</v>
+        <v>0.002694677385638929</v>
       </c>
       <c r="D103">
-        <v>-0.01951637823381018</v>
+        <v>2.796456180793314e-05</v>
       </c>
       <c r="E103">
-        <v>0.01451962234865491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001434786805253081</v>
+      </c>
+      <c r="F103">
+        <v>0.007846325394875911</v>
+      </c>
+      <c r="G103">
+        <v>0.01548651060603064</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9688095142194855</v>
+        <v>-0.02080485613430433</v>
       </c>
       <c r="C104">
-        <v>0.2068073090837142</v>
+        <v>-0.02906720337120462</v>
       </c>
       <c r="D104">
-        <v>0.01577764209115601</v>
+        <v>-0.9872732916715311</v>
       </c>
       <c r="E104">
-        <v>0.03728026464114052</v>
+        <v>0.05283724096837908</v>
+      </c>
+      <c r="F104">
+        <v>0.03956871271504347</v>
+      </c>
+      <c r="G104">
+        <v>-0.02741570629076413</v>
       </c>
     </row>
   </sheetData>
